--- a/tests/data/Controls/Sample_DODI_8500_2_Controls.xlsx
+++ b/tests/data/Controls/Sample_DODI_8500_2_Controls.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josh\Google Drive\Work\modules\custom\PSIASTAND\tests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jared.richards\Documents\repo.theoremforge.com\PSIASTAND\tests\data\Controls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228"/>
   </bookViews>
   <sheets>
     <sheet name="Archer Search Report" sheetId="1" r:id="rId1"/>
@@ -2505,9 +2505,6 @@
     <t>No system software life cycle documentation exists, therfore it is not current, approved, and it does not reflect the implementation of regular code reviews and accepted software quality assurance practices during the system software lifecycle.</t>
   </si>
   <si>
-    <t>AssessmentObjectiveID</t>
-  </si>
-  <si>
     <t>Hosting Facility is responsible for the Alternate Site, but is not providing one at this time. Projected builded out of a Hosting Facility Alt Site Location is currently FY15, until such time, this control is marked as a "Known Failure" on the DIP. The Applicaiotn Owner is responsible for their own Cold, Warm, or Hot site until Hosting Facility provides an Alt Site Location; and will provide Hosting Facility an approved Contingency Disaster Recover Plan (CDRP) to incorporate into Hosting Facility's Continuity of Operations Plan (COOP).</t>
   </si>
   <si>
@@ -2855,12 +2852,15 @@
   </si>
   <si>
     <t>APP OWNER does not have evidence that individual accounts are documented that have access to group accounts</t>
+  </si>
+  <si>
+    <t>Assessment Objective ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3270,21 +3270,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.265625" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" customWidth="1"/>
-    <col min="3" max="4" width="33.73046875" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="9" max="9" width="36.265625" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="4" width="33.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="36.21875" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>827</v>
+        <v>942</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -3331,7 +3331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3345,10 +3345,10 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -3366,7 +3366,7 @@
         <v>822</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M2" s="2">
         <v>42401</v>
@@ -3375,10 +3375,10 @@
         <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3392,10 +3392,10 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -3413,7 +3413,7 @@
         <v>822</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M3" s="2">
         <v>42401</v>
@@ -3422,10 +3422,10 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3439,10 +3439,10 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -3460,7 +3460,7 @@
         <v>822</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M4" s="2">
         <v>42401</v>
@@ -3469,10 +3469,10 @@
         <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3486,10 +3486,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
@@ -3507,7 +3507,7 @@
         <v>822</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M5" s="2">
         <v>42401</v>
@@ -3516,10 +3516,10 @@
         <v>22</v>
       </c>
       <c r="O5" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3533,10 +3533,10 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -3554,7 +3554,7 @@
         <v>822</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M6" s="2">
         <v>42401</v>
@@ -3563,10 +3563,10 @@
         <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -3580,10 +3580,10 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
@@ -3601,7 +3601,7 @@
         <v>823</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M7" s="2">
         <v>42401</v>
@@ -3610,7 +3610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -3624,10 +3624,10 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -3645,7 +3645,7 @@
         <v>823</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M8" s="2">
         <v>42401</v>
@@ -3654,7 +3654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -3668,10 +3668,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -3689,7 +3689,7 @@
         <v>823</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M9" s="2">
         <v>42401</v>
@@ -3698,7 +3698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3712,10 +3712,10 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -3733,7 +3733,7 @@
         <v>823</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M10" s="2">
         <v>42401</v>
@@ -3742,7 +3742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3756,10 +3756,10 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G11" t="s">
         <v>55</v>
@@ -3777,7 +3777,7 @@
         <v>823</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M11" s="2">
         <v>42401</v>
@@ -3786,7 +3786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -3800,10 +3800,10 @@
         <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G12" t="s">
         <v>61</v>
@@ -3821,7 +3821,7 @@
         <v>822</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M12" s="2">
         <v>42401</v>
@@ -3830,10 +3830,10 @@
         <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -3847,10 +3847,10 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
@@ -3868,7 +3868,7 @@
         <v>822</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M13" s="2">
         <v>42401</v>
@@ -3877,10 +3877,10 @@
         <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3894,10 +3894,10 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G14" t="s">
         <v>74</v>
@@ -3915,7 +3915,7 @@
         <v>822</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M14" s="2">
         <v>42401</v>
@@ -3924,10 +3924,10 @@
         <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -3941,10 +3941,10 @@
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F15" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G15" t="s">
         <v>80</v>
@@ -3962,7 +3962,7 @@
         <v>822</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M15" s="2">
         <v>42401</v>
@@ -3971,10 +3971,10 @@
         <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -3988,10 +3988,10 @@
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -4009,7 +4009,7 @@
         <v>823</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M16" s="2">
         <v>42401</v>
@@ -4018,7 +4018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -4032,10 +4032,10 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G17" t="s">
         <v>93</v>
@@ -4053,7 +4053,7 @@
         <v>823</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M17" s="2">
         <v>42401</v>
@@ -4062,7 +4062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -4076,10 +4076,10 @@
         <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G18" t="s">
         <v>99</v>
@@ -4097,7 +4097,7 @@
         <v>823</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M18" s="2">
         <v>42401</v>
@@ -4106,7 +4106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -4120,10 +4120,10 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F19" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G19" t="s">
         <v>105</v>
@@ -4141,7 +4141,7 @@
         <v>823</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M19" s="2">
         <v>42401</v>
@@ -4150,7 +4150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -4164,10 +4164,10 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G20" t="s">
         <v>111</v>
@@ -4185,7 +4185,7 @@
         <v>822</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M20" s="2">
         <v>42401</v>
@@ -4194,10 +4194,10 @@
         <v>22</v>
       </c>
       <c r="O20" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -4211,10 +4211,10 @@
         <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G21" t="s">
         <v>117</v>
@@ -4232,7 +4232,7 @@
         <v>822</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M21" s="2">
         <v>42402</v>
@@ -4241,10 +4241,10 @@
         <v>22</v>
       </c>
       <c r="O21" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -4258,10 +4258,10 @@
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F22" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G22" t="s">
         <v>123</v>
@@ -4279,7 +4279,7 @@
         <v>823</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M22" s="2">
         <v>42402</v>
@@ -4288,7 +4288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -4302,10 +4302,10 @@
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G23" t="s">
         <v>126</v>
@@ -4323,7 +4323,7 @@
         <v>823</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M23" s="2">
         <v>42402</v>
@@ -4332,7 +4332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -4346,10 +4346,10 @@
         <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F24" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G24" t="s">
         <v>132</v>
@@ -4367,7 +4367,7 @@
         <v>823</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M24" s="2">
         <v>42402</v>
@@ -4376,7 +4376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -4390,10 +4390,10 @@
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F25" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G25" t="s">
         <v>138</v>
@@ -4411,7 +4411,7 @@
         <v>823</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M25" s="2">
         <v>42402</v>
@@ -4420,7 +4420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -4434,10 +4434,10 @@
         <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F26" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G26" t="s">
         <v>141</v>
@@ -4455,7 +4455,7 @@
         <v>823</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M26" s="2">
         <v>42402</v>
@@ -4464,7 +4464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -4478,10 +4478,10 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F27" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G27" t="s">
         <v>147</v>
@@ -4499,7 +4499,7 @@
         <v>823</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M27" s="2">
         <v>42402</v>
@@ -4508,7 +4508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -4522,10 +4522,10 @@
         <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F28" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G28" t="s">
         <v>153</v>
@@ -4543,7 +4543,7 @@
         <v>823</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M28" s="2">
         <v>42402</v>
@@ -4552,7 +4552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>156</v>
       </c>
@@ -4566,10 +4566,10 @@
         <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F29" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G29" t="s">
         <v>159</v>
@@ -4587,7 +4587,7 @@
         <v>822</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M29" s="2">
         <v>42402</v>
@@ -4596,10 +4596,10 @@
         <v>22</v>
       </c>
       <c r="O29" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -4613,10 +4613,10 @@
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F30" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G30" t="s">
         <v>165</v>
@@ -4634,7 +4634,7 @@
         <v>822</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M30" s="2">
         <v>42402</v>
@@ -4643,10 +4643,10 @@
         <v>22</v>
       </c>
       <c r="O30" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -4660,10 +4660,10 @@
         <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F31" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G31" t="s">
         <v>168</v>
@@ -4681,7 +4681,7 @@
         <v>822</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M31" s="2">
         <v>42402</v>
@@ -4690,10 +4690,10 @@
         <v>22</v>
       </c>
       <c r="O31" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -4707,10 +4707,10 @@
         <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G32" t="s">
         <v>171</v>
@@ -4728,7 +4728,7 @@
         <v>822</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M32" s="2">
         <v>42402</v>
@@ -4737,10 +4737,10 @@
         <v>22</v>
       </c>
       <c r="O32" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>162</v>
       </c>
@@ -4754,10 +4754,10 @@
         <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G33" t="s">
         <v>174</v>
@@ -4775,7 +4775,7 @@
         <v>823</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M33" s="2">
         <v>42402</v>
@@ -4784,7 +4784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -4798,10 +4798,10 @@
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F34" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G34" t="s">
         <v>177</v>
@@ -4819,7 +4819,7 @@
         <v>822</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M34" s="2">
         <v>42402</v>
@@ -4828,10 +4828,10 @@
         <v>22</v>
       </c>
       <c r="O34" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>180</v>
       </c>
@@ -4845,10 +4845,10 @@
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F35" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G35" t="s">
         <v>183</v>
@@ -4866,7 +4866,7 @@
         <v>823</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M35" s="2">
         <v>42402</v>
@@ -4875,7 +4875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>180</v>
       </c>
@@ -4889,10 +4889,10 @@
         <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F36" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G36" t="s">
         <v>186</v>
@@ -4910,7 +4910,7 @@
         <v>823</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M36" s="2">
         <v>42402</v>
@@ -4919,7 +4919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>189</v>
       </c>
@@ -4933,10 +4933,10 @@
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F37" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G37" t="s">
         <v>192</v>
@@ -4954,7 +4954,7 @@
         <v>822</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M37" s="2">
         <v>42402</v>
@@ -4963,10 +4963,10 @@
         <v>22</v>
       </c>
       <c r="O37" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>189</v>
       </c>
@@ -4980,10 +4980,10 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F38" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G38" t="s">
         <v>195</v>
@@ -5001,7 +5001,7 @@
         <v>822</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M38" s="2">
         <v>42402</v>
@@ -5010,10 +5010,10 @@
         <v>22</v>
       </c>
       <c r="O38" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>198</v>
       </c>
@@ -5027,10 +5027,10 @@
         <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F39" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G39" t="s">
         <v>201</v>
@@ -5048,7 +5048,7 @@
         <v>822</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M39" s="2">
         <v>42402</v>
@@ -5057,10 +5057,10 @@
         <v>22</v>
       </c>
       <c r="O39" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>204</v>
       </c>
@@ -5074,10 +5074,10 @@
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F40" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G40" t="s">
         <v>207</v>
@@ -5095,7 +5095,7 @@
         <v>822</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M40" s="2">
         <v>42402</v>
@@ -5104,10 +5104,10 @@
         <v>22</v>
       </c>
       <c r="O40" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -5121,10 +5121,10 @@
         <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F41" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G41" t="s">
         <v>213</v>
@@ -5142,7 +5142,7 @@
         <v>823</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M41" s="2">
         <v>42402</v>
@@ -5151,7 +5151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>210</v>
       </c>
@@ -5165,10 +5165,10 @@
         <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F42" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G42" t="s">
         <v>216</v>
@@ -5186,7 +5186,7 @@
         <v>823</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M42" s="2">
         <v>42402</v>
@@ -5195,7 +5195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>219</v>
       </c>
@@ -5209,10 +5209,10 @@
         <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F43" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G43" t="s">
         <v>222</v>
@@ -5230,7 +5230,7 @@
         <v>823</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M43" s="2">
         <v>42402</v>
@@ -5239,7 +5239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>225</v>
       </c>
@@ -5253,10 +5253,10 @@
         <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F44" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G44" t="s">
         <v>228</v>
@@ -5274,7 +5274,7 @@
         <v>823</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M44" s="2">
         <v>42402</v>
@@ -5283,7 +5283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>231</v>
       </c>
@@ -5297,10 +5297,10 @@
         <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F45" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G45" t="s">
         <v>234</v>
@@ -5318,7 +5318,7 @@
         <v>822</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M45" s="2">
         <v>42402</v>
@@ -5327,10 +5327,10 @@
         <v>22</v>
       </c>
       <c r="O45" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>237</v>
       </c>
@@ -5344,10 +5344,10 @@
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F46" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G46" t="s">
         <v>240</v>
@@ -5365,7 +5365,7 @@
         <v>823</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M46" s="2">
         <v>42402</v>
@@ -5374,7 +5374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -5388,10 +5388,10 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F47" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G47" t="s">
         <v>246</v>
@@ -5409,7 +5409,7 @@
         <v>822</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M47" s="2">
         <v>42402</v>
@@ -5421,7 +5421,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>249</v>
       </c>
@@ -5435,10 +5435,10 @@
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F48" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G48" t="s">
         <v>252</v>
@@ -5456,7 +5456,7 @@
         <v>823</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M48" s="2">
         <v>42402</v>
@@ -5465,7 +5465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>255</v>
       </c>
@@ -5479,10 +5479,10 @@
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F49" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G49" t="s">
         <v>258</v>
@@ -5500,7 +5500,7 @@
         <v>823</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M49" s="2">
         <v>42402</v>
@@ -5509,7 +5509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>255</v>
       </c>
@@ -5523,10 +5523,10 @@
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F50" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G50" t="s">
         <v>261</v>
@@ -5544,7 +5544,7 @@
         <v>822</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M50" s="2">
         <v>42402</v>
@@ -5556,7 +5556,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>264</v>
       </c>
@@ -5570,10 +5570,10 @@
         <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F51" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G51" t="s">
         <v>267</v>
@@ -5591,7 +5591,7 @@
         <v>823</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M51" s="2">
         <v>42402</v>
@@ -5600,7 +5600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>264</v>
       </c>
@@ -5614,10 +5614,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F52" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G52" t="s">
         <v>270</v>
@@ -5635,7 +5635,7 @@
         <v>823</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M52" s="2">
         <v>42402</v>
@@ -5644,7 +5644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>273</v>
       </c>
@@ -5658,10 +5658,10 @@
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F53" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G53" t="s">
         <v>276</v>
@@ -5679,7 +5679,7 @@
         <v>823</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M53" s="2">
         <v>42402</v>
@@ -5688,7 +5688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -5702,10 +5702,10 @@
         <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F54" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G54" t="s">
         <v>282</v>
@@ -5723,7 +5723,7 @@
         <v>822</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M54" s="2">
         <v>42402</v>
@@ -5735,7 +5735,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>279</v>
       </c>
@@ -5749,10 +5749,10 @@
         <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F55" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G55" t="s">
         <v>285</v>
@@ -5770,7 +5770,7 @@
         <v>822</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M55" s="2">
         <v>42402</v>
@@ -5779,10 +5779,10 @@
         <v>22</v>
       </c>
       <c r="O55" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>279</v>
       </c>
@@ -5796,10 +5796,10 @@
         <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F56" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G56" t="s">
         <v>288</v>
@@ -5817,7 +5817,7 @@
         <v>823</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M56" s="2">
         <v>42402</v>
@@ -5826,7 +5826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -5840,10 +5840,10 @@
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F57" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G57" t="s">
         <v>294</v>
@@ -5861,7 +5861,7 @@
         <v>823</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M57" s="2">
         <v>42402</v>
@@ -5870,7 +5870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>297</v>
       </c>
@@ -5884,10 +5884,10 @@
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F58" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G58" t="s">
         <v>300</v>
@@ -5905,7 +5905,7 @@
         <v>823</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M58" s="2">
         <v>42402</v>
@@ -5914,7 +5914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>297</v>
       </c>
@@ -5928,10 +5928,10 @@
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F59" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G59" t="s">
         <v>303</v>
@@ -5949,7 +5949,7 @@
         <v>822</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M59" s="2">
         <v>42402</v>
@@ -5958,10 +5958,10 @@
         <v>22</v>
       </c>
       <c r="O59" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>306</v>
       </c>
@@ -5975,10 +5975,10 @@
         <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F60" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G60" t="s">
         <v>309</v>
@@ -5996,7 +5996,7 @@
         <v>822</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M60" s="2">
         <v>42404</v>
@@ -6005,10 +6005,10 @@
         <v>22</v>
       </c>
       <c r="O60" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>306</v>
       </c>
@@ -6022,10 +6022,10 @@
         <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F61" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G61" t="s">
         <v>312</v>
@@ -6043,7 +6043,7 @@
         <v>823</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M61" s="2">
         <v>42404</v>
@@ -6052,7 +6052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>315</v>
       </c>
@@ -6066,10 +6066,10 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F62" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G62" t="s">
         <v>318</v>
@@ -6087,7 +6087,7 @@
         <v>823</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M62" s="2">
         <v>42402</v>
@@ -6096,7 +6096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>315</v>
       </c>
@@ -6110,10 +6110,10 @@
         <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F63" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G63" t="s">
         <v>321</v>
@@ -6131,7 +6131,7 @@
         <v>823</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M63" s="2">
         <v>42402</v>
@@ -6140,7 +6140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>324</v>
       </c>
@@ -6154,10 +6154,10 @@
         <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F64" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G64" t="s">
         <v>327</v>
@@ -6175,7 +6175,7 @@
         <v>823</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M64" s="2">
         <v>42402</v>
@@ -6184,7 +6184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>330</v>
       </c>
@@ -6198,10 +6198,10 @@
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F65" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G65" t="s">
         <v>333</v>
@@ -6219,7 +6219,7 @@
         <v>823</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M65" s="2">
         <v>42402</v>
@@ -6228,7 +6228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>336</v>
       </c>
@@ -6242,10 +6242,10 @@
         <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F66" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G66" t="s">
         <v>339</v>
@@ -6263,7 +6263,7 @@
         <v>823</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M66" s="2">
         <v>42402</v>
@@ -6272,7 +6272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>336</v>
       </c>
@@ -6286,10 +6286,10 @@
         <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F67" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G67" t="s">
         <v>339</v>
@@ -6307,7 +6307,7 @@
         <v>823</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M67" s="2">
         <v>42402</v>
@@ -6316,7 +6316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>336</v>
       </c>
@@ -6330,10 +6330,10 @@
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F68" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G68" t="s">
         <v>342</v>
@@ -6351,7 +6351,7 @@
         <v>822</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M68" s="2">
         <v>42403</v>
@@ -6360,10 +6360,10 @@
         <v>22</v>
       </c>
       <c r="O68" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>336</v>
       </c>
@@ -6377,10 +6377,10 @@
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F69" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G69" t="s">
         <v>342</v>
@@ -6398,7 +6398,7 @@
         <v>822</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M69" s="2">
         <v>42403</v>
@@ -6407,10 +6407,10 @@
         <v>22</v>
       </c>
       <c r="O69" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>345</v>
       </c>
@@ -6424,10 +6424,10 @@
         <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F70" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G70" t="s">
         <v>348</v>
@@ -6445,7 +6445,7 @@
         <v>823</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M70" s="2">
         <v>42403</v>
@@ -6454,7 +6454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>345</v>
       </c>
@@ -6468,10 +6468,10 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F71" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G71" t="s">
         <v>351</v>
@@ -6489,7 +6489,7 @@
         <v>823</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M71" s="2">
         <v>42403</v>
@@ -6498,7 +6498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>354</v>
       </c>
@@ -6512,10 +6512,10 @@
         <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F72" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G72" t="s">
         <v>357</v>
@@ -6533,7 +6533,7 @@
         <v>823</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M72" s="2">
         <v>42403</v>
@@ -6542,7 +6542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>360</v>
       </c>
@@ -6556,10 +6556,10 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F73" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G73" t="s">
         <v>363</v>
@@ -6577,7 +6577,7 @@
         <v>823</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M73" s="2">
         <v>42403</v>
@@ -6586,7 +6586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>366</v>
       </c>
@@ -6600,10 +6600,10 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F74" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G74" t="s">
         <v>369</v>
@@ -6621,7 +6621,7 @@
         <v>823</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M74" s="2">
         <v>42403</v>
@@ -6630,7 +6630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>366</v>
       </c>
@@ -6644,10 +6644,10 @@
         <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F75" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G75" t="s">
         <v>372</v>
@@ -6665,7 +6665,7 @@
         <v>823</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M75" s="2">
         <v>42403</v>
@@ -6674,7 +6674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>366</v>
       </c>
@@ -6688,10 +6688,10 @@
         <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F76" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G76" t="s">
         <v>375</v>
@@ -6709,7 +6709,7 @@
         <v>823</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M76" s="2">
         <v>42403</v>
@@ -6718,7 +6718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>378</v>
       </c>
@@ -6732,10 +6732,10 @@
         <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F77" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G77" t="s">
         <v>381</v>
@@ -6753,7 +6753,7 @@
         <v>823</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M77" s="2">
         <v>42403</v>
@@ -6762,7 +6762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>384</v>
       </c>
@@ -6776,10 +6776,10 @@
         <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F78" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G78" t="s">
         <v>387</v>
@@ -6797,7 +6797,7 @@
         <v>823</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M78" s="2">
         <v>42403</v>
@@ -6806,7 +6806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>390</v>
       </c>
@@ -6820,10 +6820,10 @@
         <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F79" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G79" t="s">
         <v>393</v>
@@ -6841,7 +6841,7 @@
         <v>823</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M79" s="2">
         <v>42403</v>
@@ -6850,7 +6850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>390</v>
       </c>
@@ -6864,10 +6864,10 @@
         <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F80" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G80" t="s">
         <v>396</v>
@@ -6885,7 +6885,7 @@
         <v>823</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M80" s="2">
         <v>42403</v>
@@ -6894,7 +6894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>399</v>
       </c>
@@ -6908,10 +6908,10 @@
         <v>73</v>
       </c>
       <c r="E81" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F81" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G81" t="s">
         <v>402</v>
@@ -6929,7 +6929,7 @@
         <v>823</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M81" s="2">
         <v>42403</v>
@@ -6938,7 +6938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>405</v>
       </c>
@@ -6952,10 +6952,10 @@
         <v>51</v>
       </c>
       <c r="E82" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F82" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G82" t="s">
         <v>408</v>
@@ -6973,7 +6973,7 @@
         <v>823</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M82" s="2">
         <v>42403</v>
@@ -6982,7 +6982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>411</v>
       </c>
@@ -6996,10 +6996,10 @@
         <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F83" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G83" t="s">
         <v>414</v>
@@ -7017,7 +7017,7 @@
         <v>823</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M83" s="2">
         <v>42403</v>
@@ -7026,7 +7026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>417</v>
       </c>
@@ -7040,10 +7040,10 @@
         <v>51</v>
       </c>
       <c r="E84" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F84" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G84" t="s">
         <v>420</v>
@@ -7061,7 +7061,7 @@
         <v>823</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M84" s="2">
         <v>42403</v>
@@ -7070,7 +7070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>417</v>
       </c>
@@ -7084,10 +7084,10 @@
         <v>51</v>
       </c>
       <c r="E85" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F85" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G85" t="s">
         <v>423</v>
@@ -7105,7 +7105,7 @@
         <v>823</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M85" s="2">
         <v>42403</v>
@@ -7114,7 +7114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>426</v>
       </c>
@@ -7128,10 +7128,10 @@
         <v>51</v>
       </c>
       <c r="E86" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F86" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G86" t="s">
         <v>429</v>
@@ -7149,7 +7149,7 @@
         <v>823</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M86" s="2">
         <v>42403</v>
@@ -7158,7 +7158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>426</v>
       </c>
@@ -7172,10 +7172,10 @@
         <v>51</v>
       </c>
       <c r="E87" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F87" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G87" t="s">
         <v>432</v>
@@ -7193,7 +7193,7 @@
         <v>823</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M87" s="2">
         <v>42403</v>
@@ -7202,7 +7202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>435</v>
       </c>
@@ -7216,10 +7216,10 @@
         <v>51</v>
       </c>
       <c r="E88" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F88" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G88" t="s">
         <v>438</v>
@@ -7237,7 +7237,7 @@
         <v>823</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M88" s="2">
         <v>42403</v>
@@ -7246,7 +7246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>441</v>
       </c>
@@ -7260,10 +7260,10 @@
         <v>51</v>
       </c>
       <c r="E89" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F89" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G89" t="s">
         <v>444</v>
@@ -7281,7 +7281,7 @@
         <v>823</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M89" s="2">
         <v>42403</v>
@@ -7290,7 +7290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>441</v>
       </c>
@@ -7304,10 +7304,10 @@
         <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F90" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G90" t="s">
         <v>447</v>
@@ -7325,7 +7325,7 @@
         <v>823</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M90" s="2">
         <v>42403</v>
@@ -7334,7 +7334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>450</v>
       </c>
@@ -7348,10 +7348,10 @@
         <v>17</v>
       </c>
       <c r="E91" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F91" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G91" t="s">
         <v>453</v>
@@ -7369,7 +7369,7 @@
         <v>823</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M91" s="2">
         <v>42403</v>
@@ -7378,7 +7378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>450</v>
       </c>
@@ -7392,10 +7392,10 @@
         <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F92" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G92" t="s">
         <v>456</v>
@@ -7413,7 +7413,7 @@
         <v>823</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M92" s="2">
         <v>42403</v>
@@ -7422,7 +7422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>459</v>
       </c>
@@ -7436,10 +7436,10 @@
         <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F93" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G93" t="s">
         <v>462</v>
@@ -7457,7 +7457,7 @@
         <v>823</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M93" s="2">
         <v>42403</v>
@@ -7466,7 +7466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>465</v>
       </c>
@@ -7480,10 +7480,10 @@
         <v>73</v>
       </c>
       <c r="E94" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F94" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G94" t="s">
         <v>468</v>
@@ -7501,7 +7501,7 @@
         <v>823</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M94" s="2">
         <v>42403</v>
@@ -7510,7 +7510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>471</v>
       </c>
@@ -7524,10 +7524,10 @@
         <v>51</v>
       </c>
       <c r="E95" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F95" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G95" t="s">
         <v>474</v>
@@ -7545,7 +7545,7 @@
         <v>823</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M95" s="2">
         <v>42403</v>
@@ -7554,7 +7554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>471</v>
       </c>
@@ -7568,10 +7568,10 @@
         <v>51</v>
       </c>
       <c r="E96" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F96" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G96" t="s">
         <v>477</v>
@@ -7589,7 +7589,7 @@
         <v>823</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M96" s="2">
         <v>42403</v>
@@ -7598,7 +7598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>480</v>
       </c>
@@ -7612,10 +7612,10 @@
         <v>51</v>
       </c>
       <c r="E97" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F97" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G97" t="s">
         <v>483</v>
@@ -7633,7 +7633,7 @@
         <v>823</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M97" s="2">
         <v>42403</v>
@@ -7642,7 +7642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>480</v>
       </c>
@@ -7656,10 +7656,10 @@
         <v>51</v>
       </c>
       <c r="E98" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F98" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G98" t="s">
         <v>483</v>
@@ -7677,7 +7677,7 @@
         <v>823</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M98" s="2">
         <v>42403</v>
@@ -7686,7 +7686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>486</v>
       </c>
@@ -7700,10 +7700,10 @@
         <v>17</v>
       </c>
       <c r="E99" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F99" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G99" t="s">
         <v>489</v>
@@ -7721,7 +7721,7 @@
         <v>823</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M99" s="2">
         <v>42403</v>
@@ -7730,7 +7730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>492</v>
       </c>
@@ -7744,10 +7744,10 @@
         <v>51</v>
       </c>
       <c r="E100" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F100" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G100" t="s">
         <v>495</v>
@@ -7765,7 +7765,7 @@
         <v>823</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M100" s="2">
         <v>42403</v>
@@ -7774,7 +7774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>498</v>
       </c>
@@ -7788,10 +7788,10 @@
         <v>51</v>
       </c>
       <c r="E101" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F101" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G101" t="s">
         <v>501</v>
@@ -7809,7 +7809,7 @@
         <v>823</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M101" s="2">
         <v>42403</v>
@@ -7818,7 +7818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>504</v>
       </c>
@@ -7832,10 +7832,10 @@
         <v>73</v>
       </c>
       <c r="E102" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F102" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G102" t="s">
         <v>507</v>
@@ -7853,7 +7853,7 @@
         <v>822</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M102" s="2">
         <v>42403</v>
@@ -7862,10 +7862,10 @@
         <v>22</v>
       </c>
       <c r="O102" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>510</v>
       </c>
@@ -7879,10 +7879,10 @@
         <v>51</v>
       </c>
       <c r="E103" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F103" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G103" t="s">
         <v>513</v>
@@ -7900,7 +7900,7 @@
         <v>823</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M103" s="2">
         <v>42403</v>
@@ -7909,7 +7909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>516</v>
       </c>
@@ -7923,10 +7923,10 @@
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F104" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G104" t="s">
         <v>519</v>
@@ -7944,7 +7944,7 @@
         <v>823</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M104" s="2">
         <v>42403</v>
@@ -7953,7 +7953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>522</v>
       </c>
@@ -7967,10 +7967,10 @@
         <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F105" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G105" t="s">
         <v>525</v>
@@ -7988,7 +7988,7 @@
         <v>823</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M105" s="2">
         <v>42403</v>
@@ -7997,7 +7997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>522</v>
       </c>
@@ -8011,10 +8011,10 @@
         <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F106" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G106" t="s">
         <v>528</v>
@@ -8032,7 +8032,7 @@
         <v>823</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M106" s="2">
         <v>42403</v>
@@ -8041,7 +8041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>531</v>
       </c>
@@ -8055,10 +8055,10 @@
         <v>51</v>
       </c>
       <c r="E107" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F107" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G107" t="s">
         <v>534</v>
@@ -8076,7 +8076,7 @@
         <v>823</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M107" s="2">
         <v>42403</v>
@@ -8085,7 +8085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>537</v>
       </c>
@@ -8099,10 +8099,10 @@
         <v>17</v>
       </c>
       <c r="E108" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F108" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G108" t="s">
         <v>540</v>
@@ -8120,7 +8120,7 @@
         <v>823</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M108" s="2">
         <v>42403</v>
@@ -8129,7 +8129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>543</v>
       </c>
@@ -8143,10 +8143,10 @@
         <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F109" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G109" t="s">
         <v>546</v>
@@ -8164,7 +8164,7 @@
         <v>823</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M109" s="2">
         <v>42403</v>
@@ -8173,7 +8173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>543</v>
       </c>
@@ -8187,10 +8187,10 @@
         <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F110" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G110" t="s">
         <v>549</v>
@@ -8208,7 +8208,7 @@
         <v>823</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M110" s="2">
         <v>42403</v>
@@ -8217,7 +8217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>543</v>
       </c>
@@ -8231,10 +8231,10 @@
         <v>51</v>
       </c>
       <c r="E111" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F111" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G111" t="s">
         <v>552</v>
@@ -8252,7 +8252,7 @@
         <v>823</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M111" s="2">
         <v>42403</v>
@@ -8261,7 +8261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>555</v>
       </c>
@@ -8275,10 +8275,10 @@
         <v>51</v>
       </c>
       <c r="E112" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F112" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G112" t="s">
         <v>558</v>
@@ -8296,7 +8296,7 @@
         <v>823</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M112" s="2">
         <v>42403</v>
@@ -8305,7 +8305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>561</v>
       </c>
@@ -8319,10 +8319,10 @@
         <v>51</v>
       </c>
       <c r="E113" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F113" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G113" t="s">
         <v>564</v>
@@ -8340,7 +8340,7 @@
         <v>823</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M113" s="2">
         <v>42403</v>
@@ -8349,7 +8349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>561</v>
       </c>
@@ -8363,10 +8363,10 @@
         <v>51</v>
       </c>
       <c r="E114" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F114" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G114" t="s">
         <v>567</v>
@@ -8384,7 +8384,7 @@
         <v>823</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M114" s="2">
         <v>42403</v>
@@ -8393,7 +8393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>570</v>
       </c>
@@ -8407,10 +8407,10 @@
         <v>17</v>
       </c>
       <c r="E115" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F115" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G115" t="s">
         <v>573</v>
@@ -8428,7 +8428,7 @@
         <v>823</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M115" s="2">
         <v>42403</v>
@@ -8437,7 +8437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>576</v>
       </c>
@@ -8451,10 +8451,10 @@
         <v>73</v>
       </c>
       <c r="E116" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F116" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G116" t="s">
         <v>579</v>
@@ -8472,7 +8472,7 @@
         <v>822</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M116" s="2">
         <v>42403</v>
@@ -8481,7 +8481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>582</v>
       </c>
@@ -8495,10 +8495,10 @@
         <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F117" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G117" t="s">
         <v>585</v>
@@ -8516,7 +8516,7 @@
         <v>823</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M117" s="2">
         <v>42404</v>
@@ -8525,7 +8525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>582</v>
       </c>
@@ -8539,10 +8539,10 @@
         <v>17</v>
       </c>
       <c r="E118" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F118" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G118" t="s">
         <v>588</v>
@@ -8560,7 +8560,7 @@
         <v>823</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M118" s="2">
         <v>42404</v>
@@ -8569,7 +8569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>582</v>
       </c>
@@ -8583,10 +8583,10 @@
         <v>17</v>
       </c>
       <c r="E119" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F119" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G119" t="s">
         <v>588</v>
@@ -8604,7 +8604,7 @@
         <v>823</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M119" s="2">
         <v>42404</v>
@@ -8613,7 +8613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>591</v>
       </c>
@@ -8627,10 +8627,10 @@
         <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F120" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G120" t="s">
         <v>594</v>
@@ -8648,7 +8648,7 @@
         <v>822</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M120" s="2">
         <v>42404</v>
@@ -8657,10 +8657,10 @@
         <v>22</v>
       </c>
       <c r="O120" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>591</v>
       </c>
@@ -8674,10 +8674,10 @@
         <v>17</v>
       </c>
       <c r="E121" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F121" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G121" t="s">
         <v>597</v>
@@ -8695,7 +8695,7 @@
         <v>823</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M121" s="2">
         <v>42404</v>
@@ -8704,7 +8704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>591</v>
       </c>
@@ -8718,10 +8718,10 @@
         <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F122" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G122" t="s">
         <v>600</v>
@@ -8739,7 +8739,7 @@
         <v>822</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M122" s="2">
         <v>42404</v>
@@ -8748,10 +8748,10 @@
         <v>22</v>
       </c>
       <c r="O122" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>591</v>
       </c>
@@ -8765,10 +8765,10 @@
         <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F123" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G123" t="s">
         <v>603</v>
@@ -8786,7 +8786,7 @@
         <v>822</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M123" s="2">
         <v>42404</v>
@@ -8795,10 +8795,10 @@
         <v>22</v>
       </c>
       <c r="O123" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>606</v>
       </c>
@@ -8812,10 +8812,10 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F124" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G124" t="s">
         <v>609</v>
@@ -8833,7 +8833,7 @@
         <v>822</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M124" s="2">
         <v>42404</v>
@@ -8842,10 +8842,10 @@
         <v>22</v>
       </c>
       <c r="O124" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>606</v>
       </c>
@@ -8859,10 +8859,10 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F125" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G125" t="s">
         <v>609</v>
@@ -8880,7 +8880,7 @@
         <v>822</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M125" s="2">
         <v>42404</v>
@@ -8889,10 +8889,10 @@
         <v>22</v>
       </c>
       <c r="O125" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>612</v>
       </c>
@@ -8906,10 +8906,10 @@
         <v>17</v>
       </c>
       <c r="E126" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F126" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G126" t="s">
         <v>615</v>
@@ -8927,7 +8927,7 @@
         <v>823</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M126" s="2">
         <v>42404</v>
@@ -8936,7 +8936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>612</v>
       </c>
@@ -8950,10 +8950,10 @@
         <v>17</v>
       </c>
       <c r="E127" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F127" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G127" t="s">
         <v>618</v>
@@ -8971,7 +8971,7 @@
         <v>823</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M127" s="2">
         <v>42404</v>
@@ -8980,7 +8980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>612</v>
       </c>
@@ -8994,10 +8994,10 @@
         <v>17</v>
       </c>
       <c r="E128" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F128" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G128" t="s">
         <v>621</v>
@@ -9015,7 +9015,7 @@
         <v>823</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M128" s="2">
         <v>42404</v>
@@ -9024,7 +9024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>612</v>
       </c>
@@ -9038,10 +9038,10 @@
         <v>17</v>
       </c>
       <c r="E129" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F129" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G129" t="s">
         <v>624</v>
@@ -9059,7 +9059,7 @@
         <v>823</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M129" s="2">
         <v>42404</v>
@@ -9068,7 +9068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>612</v>
       </c>
@@ -9082,10 +9082,10 @@
         <v>17</v>
       </c>
       <c r="E130" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F130" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G130" t="s">
         <v>627</v>
@@ -9103,7 +9103,7 @@
         <v>823</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M130" s="2">
         <v>42404</v>
@@ -9112,7 +9112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>612</v>
       </c>
@@ -9126,10 +9126,10 @@
         <v>17</v>
       </c>
       <c r="E131" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F131" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G131" t="s">
         <v>630</v>
@@ -9147,7 +9147,7 @@
         <v>823</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M131" s="2">
         <v>42404</v>
@@ -9156,7 +9156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>612</v>
       </c>
@@ -9170,10 +9170,10 @@
         <v>17</v>
       </c>
       <c r="E132" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F132" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G132" t="s">
         <v>633</v>
@@ -9191,7 +9191,7 @@
         <v>823</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M132" s="2">
         <v>42404</v>
@@ -9200,7 +9200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>612</v>
       </c>
@@ -9214,10 +9214,10 @@
         <v>17</v>
       </c>
       <c r="E133" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F133" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G133" t="s">
         <v>636</v>
@@ -9235,7 +9235,7 @@
         <v>823</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M133" s="2">
         <v>42404</v>
@@ -9244,7 +9244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>612</v>
       </c>
@@ -9258,10 +9258,10 @@
         <v>17</v>
       </c>
       <c r="E134" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F134" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G134" t="s">
         <v>639</v>
@@ -9279,7 +9279,7 @@
         <v>823</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M134" s="2">
         <v>42404</v>
@@ -9288,7 +9288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>612</v>
       </c>
@@ -9302,10 +9302,10 @@
         <v>17</v>
       </c>
       <c r="E135" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F135" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G135" t="s">
         <v>639</v>
@@ -9323,7 +9323,7 @@
         <v>823</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M135" s="2">
         <v>42404</v>
@@ -9332,7 +9332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>612</v>
       </c>
@@ -9346,10 +9346,10 @@
         <v>17</v>
       </c>
       <c r="E136" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F136" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G136" t="s">
         <v>642</v>
@@ -9367,7 +9367,7 @@
         <v>823</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M136" s="2">
         <v>42404</v>
@@ -9376,7 +9376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>612</v>
       </c>
@@ -9390,10 +9390,10 @@
         <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F137" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G137" t="s">
         <v>645</v>
@@ -9411,7 +9411,7 @@
         <v>823</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M137" s="2">
         <v>42404</v>
@@ -9420,7 +9420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>648</v>
       </c>
@@ -9434,10 +9434,10 @@
         <v>51</v>
       </c>
       <c r="E138" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F138" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G138" t="s">
         <v>651</v>
@@ -9455,7 +9455,7 @@
         <v>823</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M138" s="2">
         <v>42404</v>
@@ -9464,7 +9464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>654</v>
       </c>
@@ -9478,10 +9478,10 @@
         <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F139" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G139" t="s">
         <v>657</v>
@@ -9499,7 +9499,7 @@
         <v>823</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M139" s="2">
         <v>42404</v>
@@ -9508,7 +9508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>660</v>
       </c>
@@ -9522,10 +9522,10 @@
         <v>17</v>
       </c>
       <c r="E140" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F140" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G140" t="s">
         <v>663</v>
@@ -9543,7 +9543,7 @@
         <v>823</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M140" s="2">
         <v>42404</v>
@@ -9552,7 +9552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>666</v>
       </c>
@@ -9566,10 +9566,10 @@
         <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F141" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G141" t="s">
         <v>669</v>
@@ -9587,7 +9587,7 @@
         <v>823</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M141" s="2">
         <v>42404</v>
@@ -9596,7 +9596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>672</v>
       </c>
@@ -9610,10 +9610,10 @@
         <v>17</v>
       </c>
       <c r="E142" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F142" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G142" t="s">
         <v>675</v>
@@ -9631,7 +9631,7 @@
         <v>823</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M142" s="2">
         <v>42404</v>
@@ -9640,7 +9640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>678</v>
       </c>
@@ -9654,10 +9654,10 @@
         <v>51</v>
       </c>
       <c r="E143" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F143" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G143" t="s">
         <v>681</v>
@@ -9675,7 +9675,7 @@
         <v>823</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M143" s="2">
         <v>42404</v>
@@ -9684,7 +9684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>684</v>
       </c>
@@ -9698,10 +9698,10 @@
         <v>17</v>
       </c>
       <c r="E144" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F144" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G144" t="s">
         <v>687</v>
@@ -9719,7 +9719,7 @@
         <v>823</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M144" s="2">
         <v>42404</v>
@@ -9728,7 +9728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>690</v>
       </c>
@@ -9742,10 +9742,10 @@
         <v>51</v>
       </c>
       <c r="E145" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F145" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G145" t="s">
         <v>693</v>
@@ -9763,7 +9763,7 @@
         <v>823</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M145" s="2">
         <v>42404</v>
@@ -9772,7 +9772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>696</v>
       </c>
@@ -9786,10 +9786,10 @@
         <v>17</v>
       </c>
       <c r="E146" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F146" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G146" t="s">
         <v>699</v>
@@ -9807,7 +9807,7 @@
         <v>823</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M146" s="2">
         <v>42404</v>
@@ -9816,7 +9816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>702</v>
       </c>
@@ -9830,10 +9830,10 @@
         <v>51</v>
       </c>
       <c r="E147" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F147" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G147" t="s">
         <v>705</v>
@@ -9851,7 +9851,7 @@
         <v>823</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M147" s="2">
         <v>42404</v>
@@ -9860,7 +9860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>708</v>
       </c>
@@ -9874,10 +9874,10 @@
         <v>17</v>
       </c>
       <c r="E148" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F148" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G148" t="s">
         <v>711</v>
@@ -9895,7 +9895,7 @@
         <v>823</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M148" s="2">
         <v>42404</v>
@@ -9904,7 +9904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>714</v>
       </c>
@@ -9918,10 +9918,10 @@
         <v>17</v>
       </c>
       <c r="E149" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F149" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G149" t="s">
         <v>717</v>
@@ -9939,7 +9939,7 @@
         <v>823</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M149" s="2">
         <v>42404</v>
@@ -9948,7 +9948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>720</v>
       </c>
@@ -9962,10 +9962,10 @@
         <v>73</v>
       </c>
       <c r="E150" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F150" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G150" t="s">
         <v>723</v>
@@ -9983,7 +9983,7 @@
         <v>823</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M150" s="2">
         <v>42404</v>
@@ -9992,7 +9992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>726</v>
       </c>
@@ -10006,10 +10006,10 @@
         <v>51</v>
       </c>
       <c r="E151" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F151" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G151" t="s">
         <v>729</v>
@@ -10027,7 +10027,7 @@
         <v>823</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M151" s="2">
         <v>42404</v>
@@ -10036,7 +10036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>732</v>
       </c>
@@ -10050,10 +10050,10 @@
         <v>51</v>
       </c>
       <c r="E152" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F152" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G152" t="s">
         <v>735</v>
@@ -10071,7 +10071,7 @@
         <v>823</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M152" s="2">
         <v>42404</v>
@@ -10080,7 +10080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>738</v>
       </c>
@@ -10094,10 +10094,10 @@
         <v>17</v>
       </c>
       <c r="E153" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F153" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G153" t="s">
         <v>741</v>
@@ -10115,7 +10115,7 @@
         <v>823</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M153" s="2">
         <v>42404</v>
@@ -10124,7 +10124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>744</v>
       </c>
@@ -10138,10 +10138,10 @@
         <v>51</v>
       </c>
       <c r="E154" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F154" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G154" t="s">
         <v>747</v>
@@ -10159,7 +10159,7 @@
         <v>823</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M154" s="2">
         <v>42404</v>
@@ -10168,7 +10168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>750</v>
       </c>
@@ -10182,10 +10182,10 @@
         <v>73</v>
       </c>
       <c r="E155" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F155" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G155" t="s">
         <v>753</v>
@@ -10203,7 +10203,7 @@
         <v>823</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M155" s="2">
         <v>42404</v>
@@ -10212,7 +10212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>750</v>
       </c>
@@ -10226,10 +10226,10 @@
         <v>73</v>
       </c>
       <c r="E156" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F156" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G156" t="s">
         <v>753</v>
@@ -10247,7 +10247,7 @@
         <v>823</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M156" s="2">
         <v>42404</v>
@@ -10256,7 +10256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>756</v>
       </c>
@@ -10270,10 +10270,10 @@
         <v>17</v>
       </c>
       <c r="E157" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F157" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G157" t="s">
         <v>759</v>
@@ -10291,7 +10291,7 @@
         <v>823</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M157" s="2">
         <v>42404</v>
@@ -10300,7 +10300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>762</v>
       </c>
@@ -10314,10 +10314,10 @@
         <v>17</v>
       </c>
       <c r="E158" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F158" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G158" t="s">
         <v>765</v>
@@ -10335,7 +10335,7 @@
         <v>823</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M158" s="2">
         <v>42404</v>
@@ -10344,7 +10344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>768</v>
       </c>
@@ -10358,10 +10358,10 @@
         <v>17</v>
       </c>
       <c r="E159" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F159" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G159" t="s">
         <v>771</v>
@@ -10379,7 +10379,7 @@
         <v>823</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M159" s="2">
         <v>42404</v>
@@ -10388,7 +10388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>774</v>
       </c>
@@ -10402,10 +10402,10 @@
         <v>17</v>
       </c>
       <c r="E160" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F160" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G160" t="s">
         <v>777</v>
@@ -10423,7 +10423,7 @@
         <v>823</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M160" s="2">
         <v>42404</v>
@@ -10432,7 +10432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>774</v>
       </c>
@@ -10446,10 +10446,10 @@
         <v>17</v>
       </c>
       <c r="E161" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F161" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G161" t="s">
         <v>780</v>
@@ -10467,7 +10467,7 @@
         <v>823</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M161" s="2">
         <v>42404</v>
@@ -10476,7 +10476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>783</v>
       </c>
@@ -10490,10 +10490,10 @@
         <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F162" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G162" t="s">
         <v>786</v>
@@ -10511,7 +10511,7 @@
         <v>823</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M162" s="2">
         <v>42404</v>
@@ -10520,7 +10520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>789</v>
       </c>
@@ -10534,10 +10534,10 @@
         <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F163" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G163" t="s">
         <v>792</v>
@@ -10555,7 +10555,7 @@
         <v>823</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M163" s="2">
         <v>42404</v>
@@ -10564,7 +10564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>795</v>
       </c>
@@ -10578,10 +10578,10 @@
         <v>17</v>
       </c>
       <c r="E164" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F164" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G164" t="s">
         <v>798</v>
@@ -10599,7 +10599,7 @@
         <v>822</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M164" s="2">
         <v>42404</v>
@@ -10608,7 +10608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>795</v>
       </c>
@@ -10622,10 +10622,10 @@
         <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F165" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G165" t="s">
         <v>801</v>
@@ -10643,7 +10643,7 @@
         <v>822</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M165" s="2">
         <v>42404</v>
@@ -10652,7 +10652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>804</v>
       </c>
@@ -10666,10 +10666,10 @@
         <v>51</v>
       </c>
       <c r="E166" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G166" t="s">
         <v>807</v>
@@ -10687,7 +10687,7 @@
         <v>823</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M166" s="2">
         <v>42404</v>
@@ -10696,7 +10696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>804</v>
       </c>
@@ -10710,10 +10710,10 @@
         <v>51</v>
       </c>
       <c r="E167" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F167" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G167" t="s">
         <v>810</v>
@@ -10731,7 +10731,7 @@
         <v>823</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M167" s="2">
         <v>42404</v>
@@ -10740,7 +10740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>804</v>
       </c>
@@ -10754,10 +10754,10 @@
         <v>51</v>
       </c>
       <c r="E168" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F168" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G168" t="s">
         <v>813</v>
@@ -10775,7 +10775,7 @@
         <v>823</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M168" s="2">
         <v>42404</v>
@@ -10784,7 +10784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>816</v>
       </c>
@@ -10798,10 +10798,10 @@
         <v>51</v>
       </c>
       <c r="E169" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F169" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G169" t="s">
         <v>819</v>
@@ -10819,7 +10819,7 @@
         <v>823</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M169" s="2">
         <v>42404</v>
